--- a/natmiOut/OldD2/LR-pairs_lrc2p/Epo-Epor.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Epo-Epor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H2">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I2">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J2">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.23773999304862</v>
+        <v>1.2382965</v>
       </c>
       <c r="N2">
-        <v>1.23773999304862</v>
+        <v>2.476593</v>
       </c>
       <c r="O2">
-        <v>0.5682279217964543</v>
+        <v>0.4916301285727123</v>
       </c>
       <c r="P2">
-        <v>0.5682279217964543</v>
+        <v>0.4069232352903965</v>
       </c>
       <c r="Q2">
-        <v>0.2666407422053483</v>
+        <v>0.3470552962275</v>
       </c>
       <c r="R2">
-        <v>0.2666407422053483</v>
+        <v>2.082331777365</v>
       </c>
       <c r="S2">
-        <v>0.3276916403889136</v>
+        <v>0.2142624995747454</v>
       </c>
       <c r="T2">
-        <v>0.3276916403889136</v>
+        <v>0.1956603811885125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H3">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I3">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J3">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.442903499323833</v>
+        <v>0.493837</v>
       </c>
       <c r="N3">
-        <v>0.442903499323833</v>
+        <v>1.481511</v>
       </c>
       <c r="O3">
-        <v>0.203330373414922</v>
+        <v>0.1960638246203252</v>
       </c>
       <c r="P3">
-        <v>0.203330373414922</v>
+        <v>0.2434236264248145</v>
       </c>
       <c r="Q3">
-        <v>0.0954127025452056</v>
+        <v>0.1384068729283333</v>
       </c>
       <c r="R3">
-        <v>0.0954127025452056</v>
+        <v>1.245661856355</v>
       </c>
       <c r="S3">
-        <v>0.117258693297887</v>
+        <v>0.08544863851468008</v>
       </c>
       <c r="T3">
-        <v>0.117258693297887</v>
+        <v>0.117045072401874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H4">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I4">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J4">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.497602147397415</v>
+        <v>0.5547933333333334</v>
       </c>
       <c r="N4">
-        <v>0.497602147397415</v>
+        <v>1.66438</v>
       </c>
       <c r="O4">
-        <v>0.2284417047886237</v>
+        <v>0.2202647894086354</v>
       </c>
       <c r="P4">
-        <v>0.2284417047886237</v>
+        <v>0.2734704064626809</v>
       </c>
       <c r="Q4">
-        <v>0.1071961855076052</v>
+        <v>0.1554910028777778</v>
       </c>
       <c r="R4">
-        <v>0.1071961855076052</v>
+        <v>1.3994190259</v>
       </c>
       <c r="S4">
-        <v>0.1317401593690765</v>
+        <v>0.09599591563684863</v>
       </c>
       <c r="T4">
-        <v>0.1317401593690765</v>
+        <v>0.1314924273962401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.158129288188495</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H5">
-        <v>0.158129288188495</v>
+        <v>0.840805</v>
       </c>
       <c r="I5">
-        <v>0.4233095069441229</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J5">
-        <v>0.4233095069441229</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.23773999304862</v>
+        <v>0.2318295</v>
       </c>
       <c r="N5">
-        <v>1.23773999304862</v>
+        <v>0.463659</v>
       </c>
       <c r="O5">
-        <v>0.5682279217964543</v>
+        <v>0.09204125739832712</v>
       </c>
       <c r="P5">
-        <v>0.5682279217964543</v>
+        <v>0.07618273182210801</v>
       </c>
       <c r="Q5">
-        <v>0.195722944063211</v>
+        <v>0.0649744675825</v>
       </c>
       <c r="R5">
-        <v>0.195722944063211</v>
+        <v>0.389846805495</v>
       </c>
       <c r="S5">
-        <v>0.2405362814075407</v>
+        <v>0.04011346890277364</v>
       </c>
       <c r="T5">
-        <v>0.2405362814075407</v>
+        <v>0.03663084595712113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.158129288188495</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H6">
-        <v>0.158129288188495</v>
+        <v>0.361511</v>
       </c>
       <c r="I6">
-        <v>0.4233095069441229</v>
+        <v>0.1873846051773594</v>
       </c>
       <c r="J6">
-        <v>0.4233095069441229</v>
+        <v>0.2067362514568315</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.442903499323833</v>
+        <v>1.2382965</v>
       </c>
       <c r="N6">
-        <v>0.442903499323833</v>
+        <v>2.476593</v>
       </c>
       <c r="O6">
-        <v>0.203330373414922</v>
+        <v>0.4916301285727123</v>
       </c>
       <c r="P6">
-        <v>0.203330373414922</v>
+        <v>0.4069232352903965</v>
       </c>
       <c r="Q6">
-        <v>0.07003601508427129</v>
+        <v>0.1492192686705</v>
       </c>
       <c r="R6">
-        <v>0.07003601508427129</v>
+        <v>0.8953156120230001</v>
       </c>
       <c r="S6">
-        <v>0.08607168011703506</v>
+        <v>0.09212391753589215</v>
       </c>
       <c r="T6">
-        <v>0.08607168011703506</v>
+        <v>0.08412578429462282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1205036666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.361511</v>
+      </c>
+      <c r="I7">
+        <v>0.1873846051773594</v>
+      </c>
+      <c r="J7">
+        <v>0.2067362514568315</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.493837</v>
+      </c>
+      <c r="N7">
+        <v>1.481511</v>
+      </c>
+      <c r="O7">
+        <v>0.1960638246203252</v>
+      </c>
+      <c r="P7">
+        <v>0.2434236264248145</v>
+      </c>
+      <c r="Q7">
+        <v>0.05950916923566667</v>
+      </c>
+      <c r="R7">
+        <v>0.5355825231210001</v>
+      </c>
+      <c r="S7">
+        <v>0.03673934236604268</v>
+      </c>
+      <c r="T7">
+        <v>0.05032448804309426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1205036666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.361511</v>
+      </c>
+      <c r="I8">
+        <v>0.1873846051773594</v>
+      </c>
+      <c r="J8">
+        <v>0.2067362514568315</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5547933333333334</v>
+      </c>
+      <c r="N8">
+        <v>1.66438</v>
+      </c>
+      <c r="O8">
+        <v>0.2202647894086354</v>
+      </c>
+      <c r="P8">
+        <v>0.2734704064626809</v>
+      </c>
+      <c r="Q8">
+        <v>0.06685463090888889</v>
+      </c>
+      <c r="R8">
+        <v>0.6016916781800001</v>
+      </c>
+      <c r="S8">
+        <v>0.04127423059781136</v>
+      </c>
+      <c r="T8">
+        <v>0.05653624671647071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1205036666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.361511</v>
+      </c>
+      <c r="I9">
+        <v>0.1873846051773594</v>
+      </c>
+      <c r="J9">
+        <v>0.2067362514568315</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.2318295</v>
+      </c>
+      <c r="N9">
+        <v>0.463659</v>
+      </c>
+      <c r="O9">
+        <v>0.09204125739832712</v>
+      </c>
+      <c r="P9">
+        <v>0.07618273182210801</v>
+      </c>
+      <c r="Q9">
+        <v>0.0279363047915</v>
+      </c>
+      <c r="R9">
+        <v>0.167617828749</v>
+      </c>
+      <c r="S9">
+        <v>0.01724711467761324</v>
+      </c>
+      <c r="T9">
+        <v>0.01574973240264368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.158129288188495</v>
-      </c>
-      <c r="H7">
-        <v>0.158129288188495</v>
-      </c>
-      <c r="I7">
-        <v>0.4233095069441229</v>
-      </c>
-      <c r="J7">
-        <v>0.4233095069441229</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.497602147397415</v>
-      </c>
-      <c r="N7">
-        <v>0.497602147397415</v>
-      </c>
-      <c r="O7">
-        <v>0.2284417047886237</v>
-      </c>
-      <c r="P7">
-        <v>0.2284417047886237</v>
-      </c>
-      <c r="Q7">
-        <v>0.07868547336901981</v>
-      </c>
-      <c r="R7">
-        <v>0.07868547336901981</v>
-      </c>
-      <c r="S7">
-        <v>0.0967015454195472</v>
-      </c>
-      <c r="T7">
-        <v>0.0967015454195472</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.061722</v>
+      </c>
+      <c r="H10">
+        <v>0.185166</v>
+      </c>
+      <c r="I10">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J10">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.2382965</v>
+      </c>
+      <c r="N10">
+        <v>2.476593</v>
+      </c>
+      <c r="O10">
+        <v>0.4916301285727123</v>
+      </c>
+      <c r="P10">
+        <v>0.4069232352903965</v>
+      </c>
+      <c r="Q10">
+        <v>0.076430136573</v>
+      </c>
+      <c r="R10">
+        <v>0.4585808194380001</v>
+      </c>
+      <c r="S10">
+        <v>0.04718588732971059</v>
+      </c>
+      <c r="T10">
+        <v>0.04308924202776161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.061722</v>
+      </c>
+      <c r="H11">
+        <v>0.185166</v>
+      </c>
+      <c r="I11">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J11">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.493837</v>
+      </c>
+      <c r="N11">
+        <v>1.481511</v>
+      </c>
+      <c r="O11">
+        <v>0.1960638246203252</v>
+      </c>
+      <c r="P11">
+        <v>0.2434236264248145</v>
+      </c>
+      <c r="Q11">
+        <v>0.030480607314</v>
+      </c>
+      <c r="R11">
+        <v>0.274325465826</v>
+      </c>
+      <c r="S11">
+        <v>0.0188178978469553</v>
+      </c>
+      <c r="T11">
+        <v>0.02577621193542545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.061722</v>
+      </c>
+      <c r="H12">
+        <v>0.185166</v>
+      </c>
+      <c r="I12">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J12">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5547933333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.66438</v>
+      </c>
+      <c r="O12">
+        <v>0.2202647894086354</v>
+      </c>
+      <c r="P12">
+        <v>0.2734704064626809</v>
+      </c>
+      <c r="Q12">
+        <v>0.03424295412</v>
+      </c>
+      <c r="R12">
+        <v>0.30818658708</v>
+      </c>
+      <c r="S12">
+        <v>0.02114066842467958</v>
+      </c>
+      <c r="T12">
+        <v>0.02895787585855483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.061722</v>
+      </c>
+      <c r="H13">
+        <v>0.185166</v>
+      </c>
+      <c r="I13">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J13">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.2318295</v>
+      </c>
+      <c r="N13">
+        <v>0.463659</v>
+      </c>
+      <c r="O13">
+        <v>0.09204125739832712</v>
+      </c>
+      <c r="P13">
+        <v>0.07618273182210801</v>
+      </c>
+      <c r="Q13">
+        <v>0.014308980399</v>
+      </c>
+      <c r="R13">
+        <v>0.08585388239399999</v>
+      </c>
+      <c r="S13">
+        <v>0.00883397527708682</v>
+      </c>
+      <c r="T13">
+        <v>0.008067015803303133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.180588</v>
+      </c>
+      <c r="H14">
+        <v>0.361176</v>
+      </c>
+      <c r="I14">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J14">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.2382965</v>
+      </c>
+      <c r="N14">
+        <v>2.476593</v>
+      </c>
+      <c r="O14">
+        <v>0.4916301285727123</v>
+      </c>
+      <c r="P14">
+        <v>0.4069232352903965</v>
+      </c>
+      <c r="Q14">
+        <v>0.223621488342</v>
+      </c>
+      <c r="R14">
+        <v>0.8944859533680001</v>
+      </c>
+      <c r="S14">
+        <v>0.1380578241323641</v>
+      </c>
+      <c r="T14">
+        <v>0.08404782777949962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.180588</v>
+      </c>
+      <c r="H15">
+        <v>0.361176</v>
+      </c>
+      <c r="I15">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J15">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.493837</v>
+      </c>
+      <c r="N15">
+        <v>1.481511</v>
+      </c>
+      <c r="O15">
+        <v>0.1960638246203252</v>
+      </c>
+      <c r="P15">
+        <v>0.2434236264248145</v>
+      </c>
+      <c r="Q15">
+        <v>0.08918103615600001</v>
+      </c>
+      <c r="R15">
+        <v>0.535086216936</v>
+      </c>
+      <c r="S15">
+        <v>0.0550579458926471</v>
+      </c>
+      <c r="T15">
+        <v>0.0502778540444208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.180588</v>
+      </c>
+      <c r="H16">
+        <v>0.361176</v>
+      </c>
+      <c r="I16">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J16">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5547933333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.66438</v>
+      </c>
+      <c r="O16">
+        <v>0.2202647894086354</v>
+      </c>
+      <c r="P16">
+        <v>0.2734704064626809</v>
+      </c>
+      <c r="Q16">
+        <v>0.10018901848</v>
+      </c>
+      <c r="R16">
+        <v>0.60113411088</v>
+      </c>
+      <c r="S16">
+        <v>0.06185397474929581</v>
+      </c>
+      <c r="T16">
+        <v>0.05648385649141526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.180588</v>
+      </c>
+      <c r="H17">
+        <v>0.361176</v>
+      </c>
+      <c r="I17">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J17">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.2318295</v>
+      </c>
+      <c r="N17">
+        <v>0.463659</v>
+      </c>
+      <c r="O17">
+        <v>0.09204125739832712</v>
+      </c>
+      <c r="P17">
+        <v>0.07618273182210801</v>
+      </c>
+      <c r="Q17">
+        <v>0.041865625746</v>
+      </c>
+      <c r="R17">
+        <v>0.167462502984</v>
+      </c>
+      <c r="S17">
+        <v>0.02584669854085342</v>
+      </c>
+      <c r="T17">
+        <v>0.01573513765904007</v>
       </c>
     </row>
   </sheetData>
